--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vtn-Itga8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vtn-Itga8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Vtn</t>
   </si>
   <si>
     <t>Itga8</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>6.597131</v>
+        <v>2.767552</v>
       </c>
       <c r="H2">
-        <v>19.791393</v>
+        <v>8.302655999999999</v>
       </c>
       <c r="I2">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="J2">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8426706666666667</v>
+        <v>0.7489546666666667</v>
       </c>
       <c r="N2">
-        <v>2.528012</v>
+        <v>2.246864</v>
       </c>
       <c r="O2">
-        <v>0.07312747333774275</v>
+        <v>0.05220789806691288</v>
       </c>
       <c r="P2">
-        <v>0.07312747333774276</v>
+        <v>0.05220789806691287</v>
       </c>
       <c r="Q2">
-        <v>5.559208777857333</v>
+        <v>2.072770985642666</v>
       </c>
       <c r="R2">
-        <v>50.03287900071599</v>
+        <v>18.654938870784</v>
       </c>
       <c r="S2">
-        <v>0.008845086999114286</v>
+        <v>0.002457161301771065</v>
       </c>
       <c r="T2">
-        <v>0.008845086999114288</v>
+        <v>0.002457161301771064</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>6.597131</v>
+        <v>2.767552</v>
       </c>
       <c r="H3">
-        <v>19.791393</v>
+        <v>8.302655999999999</v>
       </c>
       <c r="I3">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="J3">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>8.531081</v>
       </c>
       <c r="O3">
-        <v>0.2467774671835513</v>
+        <v>0.1982273102638064</v>
       </c>
       <c r="P3">
-        <v>0.2467774671835513</v>
+        <v>0.1982273102638064</v>
       </c>
       <c r="Q3">
-        <v>18.76021964287034</v>
+        <v>7.870070094570666</v>
       </c>
       <c r="R3">
-        <v>168.841976785833</v>
+        <v>70.83063085113599</v>
       </c>
       <c r="S3">
-        <v>0.02984881149357318</v>
+        <v>0.009329555369383459</v>
       </c>
       <c r="T3">
-        <v>0.02984881149357318</v>
+        <v>0.009329555369383458</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>6.597131</v>
+        <v>2.767552</v>
       </c>
       <c r="H4">
-        <v>19.791393</v>
+        <v>8.302655999999999</v>
       </c>
       <c r="I4">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="J4">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.406534333333333</v>
+        <v>10.337765</v>
       </c>
       <c r="N4">
-        <v>22.219603</v>
+        <v>31.013295</v>
       </c>
       <c r="O4">
-        <v>0.6427435573714558</v>
+        <v>0.7206216949842531</v>
       </c>
       <c r="P4">
-        <v>0.6427435573714559</v>
+        <v>0.720621694984253</v>
       </c>
       <c r="Q4">
-        <v>48.86187725299767</v>
+        <v>28.61030220128</v>
       </c>
       <c r="R4">
-        <v>439.756895276979</v>
+        <v>257.49271981152</v>
       </c>
       <c r="S4">
-        <v>0.07774263793873637</v>
+        <v>0.03391601285810358</v>
       </c>
       <c r="T4">
-        <v>0.07774263793873638</v>
+        <v>0.03391601285810358</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>6.597131</v>
+        <v>2.767552</v>
       </c>
       <c r="H5">
-        <v>19.791393</v>
+        <v>8.302655999999999</v>
       </c>
       <c r="I5">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="J5">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.430413</v>
+        <v>0.4152066666666667</v>
       </c>
       <c r="N5">
-        <v>1.291239</v>
+        <v>1.24562</v>
       </c>
       <c r="O5">
-        <v>0.03735150210725013</v>
+        <v>0.02894309668502767</v>
       </c>
       <c r="P5">
-        <v>0.03735150210725013</v>
+        <v>0.02894309668502767</v>
       </c>
       <c r="Q5">
-        <v>2.839490945103</v>
+        <v>1.149106040746667</v>
       </c>
       <c r="R5">
-        <v>25.555418505927</v>
+        <v>10.34195436672</v>
       </c>
       <c r="S5">
-        <v>0.004517827166820938</v>
+        <v>0.001362204949081063</v>
       </c>
       <c r="T5">
-        <v>0.004517827166820938</v>
+        <v>0.001362204949081063</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>63.15952</v>
       </c>
       <c r="I6">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="J6">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8426706666666667</v>
+        <v>0.7489546666666667</v>
       </c>
       <c r="N6">
-        <v>2.528012</v>
+        <v>2.246864</v>
       </c>
       <c r="O6">
-        <v>0.07312747333774275</v>
+        <v>0.05220789806691288</v>
       </c>
       <c r="P6">
-        <v>0.07312747333774276</v>
+        <v>0.05220789806691287</v>
       </c>
       <c r="Q6">
-        <v>17.74089160824889</v>
+        <v>15.76787241614222</v>
       </c>
       <c r="R6">
-        <v>159.66802447424</v>
+        <v>141.91085174528</v>
       </c>
       <c r="S6">
-        <v>0.02822698984464099</v>
+        <v>0.01869198583952359</v>
       </c>
       <c r="T6">
-        <v>0.02822698984464099</v>
+        <v>0.01869198583952359</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>63.15952</v>
       </c>
       <c r="I7">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="J7">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>8.531081</v>
       </c>
       <c r="O7">
-        <v>0.2467774671835513</v>
+        <v>0.1982273102638064</v>
       </c>
       <c r="P7">
-        <v>0.2467774671835513</v>
+        <v>0.1982273102638064</v>
       </c>
       <c r="Q7">
         <v>59.86877567123556</v>
@@ -883,10 +883,10 @@
         <v>538.8189810411201</v>
       </c>
       <c r="S7">
-        <v>0.09525537724932071</v>
+        <v>0.07097129387796894</v>
       </c>
       <c r="T7">
-        <v>0.09525537724932072</v>
+        <v>0.07097129387796892</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>63.15952</v>
       </c>
       <c r="I8">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="J8">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.406534333333333</v>
+        <v>10.337765</v>
       </c>
       <c r="N8">
-        <v>22.219603</v>
+        <v>31.013295</v>
       </c>
       <c r="O8">
-        <v>0.6427435573714558</v>
+        <v>0.7206216949842531</v>
       </c>
       <c r="P8">
-        <v>0.6427435573714559</v>
+        <v>0.720621694984253</v>
       </c>
       <c r="Q8">
-        <v>155.9310511189511</v>
+        <v>217.6427584242666</v>
       </c>
       <c r="R8">
-        <v>1403.37946007056</v>
+        <v>1958.7848258184</v>
       </c>
       <c r="S8">
-        <v>0.2480971246311151</v>
+        <v>0.2580040763379394</v>
       </c>
       <c r="T8">
-        <v>0.2480971246311151</v>
+        <v>0.2580040763379394</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>63.15952</v>
       </c>
       <c r="I9">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="J9">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.430413</v>
+        <v>0.4152066666666667</v>
       </c>
       <c r="N9">
-        <v>1.291239</v>
+        <v>1.24562</v>
       </c>
       <c r="O9">
-        <v>0.03735150210725013</v>
+        <v>0.02894309668502767</v>
       </c>
       <c r="P9">
-        <v>0.03735150210725013</v>
+        <v>0.02894309668502767</v>
       </c>
       <c r="Q9">
-        <v>9.061559493919999</v>
+        <v>8.741417922488889</v>
       </c>
       <c r="R9">
-        <v>81.55403544528001</v>
+        <v>78.67276130239999</v>
       </c>
       <c r="S9">
-        <v>0.01441757006691597</v>
+        <v>0.01036249252354721</v>
       </c>
       <c r="T9">
-        <v>0.01441757006691598</v>
+        <v>0.01036249252354721</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.89201066666667</v>
+        <v>34.97741266666667</v>
       </c>
       <c r="H10">
-        <v>80.67603200000001</v>
+        <v>104.932238</v>
       </c>
       <c r="I10">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="J10">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8426706666666667</v>
+        <v>0.7489546666666667</v>
       </c>
       <c r="N10">
-        <v>2.528012</v>
+        <v>2.246864</v>
       </c>
       <c r="O10">
-        <v>0.07312747333774275</v>
+        <v>0.05220789806691288</v>
       </c>
       <c r="P10">
-        <v>0.07312747333774276</v>
+        <v>0.05220789806691287</v>
       </c>
       <c r="Q10">
-        <v>22.66110855648711</v>
+        <v>26.19649644462578</v>
       </c>
       <c r="R10">
-        <v>203.949977008384</v>
+        <v>235.768468001632</v>
       </c>
       <c r="S10">
-        <v>0.03605539649398747</v>
+        <v>0.03105457272008274</v>
       </c>
       <c r="T10">
-        <v>0.03605539649398748</v>
+        <v>0.03105457272008273</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>26.89201066666667</v>
+        <v>34.97741266666667</v>
       </c>
       <c r="H11">
-        <v>80.67603200000001</v>
+        <v>104.932238</v>
       </c>
       <c r="I11">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="J11">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>8.531081</v>
       </c>
       <c r="O11">
-        <v>0.2467774671835513</v>
+        <v>0.1982273102638064</v>
       </c>
       <c r="P11">
-        <v>0.2467774671835513</v>
+        <v>0.1982273102638064</v>
       </c>
       <c r="Q11">
-        <v>76.47264041673245</v>
+        <v>99.46504687658647</v>
       </c>
       <c r="R11">
-        <v>688.253763750592</v>
+        <v>895.1854218892781</v>
       </c>
       <c r="S11">
-        <v>0.1216732784406574</v>
+        <v>0.1179105968565147</v>
       </c>
       <c r="T11">
-        <v>0.1216732784406574</v>
+        <v>0.1179105968565147</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>26.89201066666667</v>
+        <v>34.97741266666667</v>
       </c>
       <c r="H12">
-        <v>80.67603200000001</v>
+        <v>104.932238</v>
       </c>
       <c r="I12">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="J12">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.406534333333333</v>
+        <v>10.337765</v>
       </c>
       <c r="N12">
-        <v>22.219603</v>
+        <v>31.013295</v>
       </c>
       <c r="O12">
-        <v>0.6427435573714558</v>
+        <v>0.7206216949842531</v>
       </c>
       <c r="P12">
-        <v>0.6427435573714559</v>
+        <v>0.720621694984253</v>
       </c>
       <c r="Q12">
-        <v>199.1766002950329</v>
+        <v>361.5882724560234</v>
       </c>
       <c r="R12">
-        <v>1792.589402655296</v>
+        <v>3254.29445210421</v>
       </c>
       <c r="S12">
-        <v>0.3169037948016044</v>
+        <v>0.4286439343310847</v>
       </c>
       <c r="T12">
-        <v>0.3169037948016045</v>
+        <v>0.4286439343310847</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>34.97741266666667</v>
+      </c>
+      <c r="H13">
+        <v>104.932238</v>
+      </c>
+      <c r="I13">
+        <v>0.5948251867999219</v>
+      </c>
+      <c r="J13">
+        <v>0.5948251867999219</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.4152066666666667</v>
+      </c>
+      <c r="N13">
+        <v>1.24562</v>
+      </c>
+      <c r="O13">
+        <v>0.02894309668502767</v>
+      </c>
+      <c r="P13">
+        <v>0.02894309668502767</v>
+      </c>
+      <c r="Q13">
+        <v>14.52285492195111</v>
+      </c>
+      <c r="R13">
+        <v>130.70569429756</v>
+      </c>
+      <c r="S13">
+        <v>0.01721608289223979</v>
+      </c>
+      <c r="T13">
+        <v>0.01721608289223978</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>26.89201066666667</v>
-      </c>
-      <c r="H13">
-        <v>80.67603200000001</v>
-      </c>
-      <c r="I13">
-        <v>0.4930485746097625</v>
-      </c>
-      <c r="J13">
-        <v>0.4930485746097625</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.430413</v>
-      </c>
-      <c r="N13">
-        <v>1.291239</v>
-      </c>
-      <c r="O13">
-        <v>0.03735150210725013</v>
-      </c>
-      <c r="P13">
-        <v>0.03735150210725013</v>
-      </c>
-      <c r="Q13">
-        <v>11.574670987072</v>
-      </c>
-      <c r="R13">
-        <v>104.172038883648</v>
-      </c>
-      <c r="S13">
-        <v>0.01841610487351322</v>
-      </c>
-      <c r="T13">
-        <v>0.01841610487351322</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.004706</v>
+      </c>
+      <c r="H14">
+        <v>0.014118</v>
+      </c>
+      <c r="I14">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="J14">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.7489546666666667</v>
+      </c>
+      <c r="N14">
+        <v>2.246864</v>
+      </c>
+      <c r="O14">
+        <v>0.05220789806691288</v>
+      </c>
+      <c r="P14">
+        <v>0.05220789806691287</v>
+      </c>
+      <c r="Q14">
+        <v>0.003524580661333333</v>
+      </c>
+      <c r="R14">
+        <v>0.031721225952</v>
+      </c>
+      <c r="S14">
+        <v>4.178205535482127E-06</v>
+      </c>
+      <c r="T14">
+        <v>4.178205535482126E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.004706</v>
+      </c>
+      <c r="H15">
+        <v>0.014118</v>
+      </c>
+      <c r="I15">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="J15">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.843693666666667</v>
+      </c>
+      <c r="N15">
+        <v>8.531081</v>
+      </c>
+      <c r="O15">
+        <v>0.1982273102638064</v>
+      </c>
+      <c r="P15">
+        <v>0.1982273102638064</v>
+      </c>
+      <c r="Q15">
+        <v>0.01338242239533333</v>
+      </c>
+      <c r="R15">
+        <v>0.120441801558</v>
+      </c>
+      <c r="S15">
+        <v>1.586415993929602E-05</v>
+      </c>
+      <c r="T15">
+        <v>1.586415993929601E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.004706</v>
+      </c>
+      <c r="H16">
+        <v>0.014118</v>
+      </c>
+      <c r="I16">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="J16">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>10.337765</v>
+      </c>
+      <c r="N16">
+        <v>31.013295</v>
+      </c>
+      <c r="O16">
+        <v>0.7206216949842531</v>
+      </c>
+      <c r="P16">
+        <v>0.720621694984253</v>
+      </c>
+      <c r="Q16">
+        <v>0.04864952208999999</v>
+      </c>
+      <c r="R16">
+        <v>0.43784569881</v>
+      </c>
+      <c r="S16">
+        <v>5.767145712537126E-05</v>
+      </c>
+      <c r="T16">
+        <v>5.767145712537126E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.004706</v>
+      </c>
+      <c r="H17">
+        <v>0.014118</v>
+      </c>
+      <c r="I17">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="J17">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.4152066666666667</v>
+      </c>
+      <c r="N17">
+        <v>1.24562</v>
+      </c>
+      <c r="O17">
+        <v>0.02894309668502767</v>
+      </c>
+      <c r="P17">
+        <v>0.02894309668502767</v>
+      </c>
+      <c r="Q17">
+        <v>0.001953962573333334</v>
+      </c>
+      <c r="R17">
+        <v>0.01758566316</v>
+      </c>
+      <c r="S17">
+        <v>2.316320159612352E-06</v>
+      </c>
+      <c r="T17">
+        <v>2.316320159612352E-06</v>
       </c>
     </row>
   </sheetData>
